--- a/TradingSimula_18-2022/TF-BollOnClose_1R.xlsx
+++ b/TradingSimula_18-2022/TF-BollOnClose_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>87.5</v>
+        <v>-47019.2499999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-4475</v>
+        <v>-305937.7000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>2162.5</v>
+        <v>-354216.8250000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-3200</v>
+        <v>-449741.8750000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-3775</v>
+        <v>-574006.4250000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-5225</v>
+        <v>-588577.1250000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-125</v>
+        <v>-595366.3250000004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>-597361.1250000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>7325</v>
+        <v>-543614.3250000004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>16162.5</v>
+        <v>-648123.4250000004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>12662.5</v>
+        <v>-608247.4250000005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>21887.5</v>
+        <v>-500157.9750000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>24187.5</v>
+        <v>-639980.2500000003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>17487.5</v>
+        <v>-657535.1500000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>7912.5</v>
+        <v>-559240.3000000003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>4225</v>
+        <v>-646296.4750000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>1787.5</v>
+        <v>-765741.475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>8150</v>
+        <v>-725986.0750000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>2300</v>
+        <v>-662768.275</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>-4937.5</v>
+        <v>-663751.7750000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>-3500</v>
+        <v>-602088.6750000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>-8637.5</v>
+        <v>-746391.6250000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>-225</v>
+        <v>-780681.8249999998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>-7462.5</v>
+        <v>-964505.1249999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>-8500</v>
+        <v>-967508.0999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>-7550</v>
+        <v>-975584.1249999998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>-3400</v>
+        <v>-977985.375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>-725</v>
+        <v>-1207710.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>-14325</v>
+        <v>-1078527.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>-16587.5</v>
+        <v>-1162179.95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>10612.5</v>
+        <v>-1129492.225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>14775</v>
+        <v>-1183231.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>3850</v>
+        <v>-1019984.975</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>-537.5</v>
+        <v>-1190037.525</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-2762.5</v>
+        <v>-1146995.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>2912.5</v>
+        <v>-1249935</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-2825</v>
+        <v>-1193864.899999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>725</v>
+        <v>-1325114.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>2062.5</v>
+        <v>-1561941.175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-1400</v>
+        <v>-1656399.175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>2075</v>
+        <v>-1653117.075</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>2350</v>
+        <v>-1659191.375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-12.5</v>
+        <v>-1614374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-275</v>
+        <v>-1614218.299999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-3300</v>
+        <v>-1632952.125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-4600</v>
+        <v>-1436405.375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-4100</v>
+        <v>-1474222.824999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-2800</v>
+        <v>-773044.7249999996</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-950</v>
+        <v>-377486.2249999996</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>537.5</v>
+        <v>367724.3250000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>3687.5</v>
+        <v>971228.9250000004</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>7687.5</v>
+        <v>-260880.4499999996</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>2012.5</v>
+        <v>-285793.8249999995</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>1850</v>
+        <v>-312473.5749999995</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>11062.5</v>
+        <v>-312895.0249999995</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>13100</v>
+        <v>-358552.1749999996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>24737.5</v>
+        <v>-220008.9499999998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>13787.5</v>
+        <v>-385074.8999999996</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>13787.5</v>
+        <v>-157149.0749999994</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>12937.5</v>
+        <v>-623160.6499999996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>10800</v>
+        <v>-677911.2499999995</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>10800</v>
+        <v>-662432.5749999996</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>10537.5</v>
+        <v>-677243.3749999995</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>11237.5</v>
+        <v>-890888.7749999997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>10212.5</v>
+        <v>-1127668.925</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>12062.5</v>
+        <v>-1325150.05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-687.5</v>
+        <v>-1409967.35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-1812.5</v>
+        <v>-1421163.575</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-2037.5</v>
+        <v>-1650649.175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-1750</v>
+        <v>-1462071.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-1825</v>
+        <v>-792334.15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-1337.5</v>
+        <v>-301338.8500000002</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-2462.5</v>
+        <v>688317.275</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>250</v>
+        <v>543847.225</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-1212.5</v>
+        <v>2128386.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>162.5</v>
+        <v>5114053.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>2187.5</v>
+        <v>5513379.524999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>5762.5</v>
+        <v>4084743.050000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>1675</v>
+        <v>4557354.450000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>5237.5</v>
+        <v>4280169.100000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>3487.5</v>
+        <v>4296598.750000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>2087.5</v>
+        <v>4336440.125000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>4062.5</v>
+        <v>4781816.725000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>1862.5</v>
+        <v>5003750.100000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-1837.5</v>
+        <v>5340075.250000002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-2950</v>
+        <v>4708726.750000002</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-737.5</v>
+        <v>3805601.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-1112.5</v>
+        <v>4423750.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-337.5</v>
+        <v>4067190.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-1800</v>
+        <v>3760733.000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-8487.5</v>
+        <v>3299151.925000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-10600</v>
+        <v>2106644.700000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-10475</v>
+        <v>1719390.200000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>-10000</v>
+        <v>1695469.225000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-9850</v>
+        <v>1361563.75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>-9512.5</v>
+        <v>2102898.975</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>-12175</v>
+        <v>2500267.050000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>-9887.5</v>
+        <v>4367434.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>-12400</v>
+        <v>3001316.750000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>-12612.5</v>
+        <v>2946760.42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>-13812.5</v>
+        <v>2378274.995000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-7100</v>
+        <v>1725001.780000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>-9687.5</v>
+        <v>-29351.62999999998</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>-6650</v>
+        <v>902754.4949999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>-6312.5</v>
+        <v>2989012.82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>-8237.5</v>
+        <v>7186826.555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-8237.5</v>
+        <v>7475512.895</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-10375</v>
+        <v>7533516.65</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-10375</v>
+        <v>7692370.405</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-8137.5</v>
+        <v>7659306.545</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-7050</v>
+        <v>7772487.795</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-2887.5</v>
+        <v>7805014.495</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-7350</v>
+        <v>8672238.609999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-8050</v>
+        <v>7849975.46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-11375</v>
+        <v>8732831.934999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-11375</v>
+        <v>9281296.785</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-11375</v>
+        <v>9465725.535</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-13700</v>
+        <v>9594333.635</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-13237.5</v>
+        <v>11382791.16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-12387.5</v>
+        <v>11040615.365</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-12450</v>
+        <v>10379741.55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-13612.5</v>
+        <v>9793469.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>-15175</v>
+        <v>9395342.199999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-11837.5</v>
+        <v>8671447.995000003</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>-11400</v>
+        <v>7738064.355000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-13475</v>
+        <v>7592025.065</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-13800</v>
+        <v>6922917.655000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>-11937.5</v>
+        <v>6933953.44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>-7212.5</v>
+        <v>8588821.295</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-3287.5</v>
+        <v>10201969.705</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>2375</v>
+        <v>12225257.705</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>11862.5</v>
+        <v>15263318.42</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>18412.5</v>
+        <v>13277775.535</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>19725</v>
+        <v>14202228.945</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>20650</v>
+        <v>15464708.695</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>35812.5</v>
+        <v>20862022.995</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>31125</v>
+        <v>13672154.47</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>29412.5</v>
+        <v>13531330.505</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>26800</v>
+        <v>13545456.38</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>26687.5</v>
+        <v>13579411.445</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>25387.5</v>
+        <v>11994076.745</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>24787.5</v>
+        <v>8506295.410000002</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>24362.5</v>
+        <v>9426388.510000002</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>21550</v>
+        <v>11772880.06</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>30750</v>
+        <v>10028541.76</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>44087.5</v>
+        <v>9005461.280000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7476523.665000005</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7194414.635000003</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8458432.665000005</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8129152.215000004</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8182626.365000003</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8422158.495000003</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>10255991.625</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8563393.815000003</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7770622.505000003</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7479920.805000005</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6393289.670000004</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6509870.875000004</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6670993.415000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9301556.495000003</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>10053200.335</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11982334.67</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11750451.805</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9725629.005000005</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8812015.935000006</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8551797.335000003</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8569516.385000005</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8633470.385000005</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8365562.285000005</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7326369.735000006</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6869336.785000005</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6869530.435000005</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6545810.935000005</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6530013.135000006</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5881526.085000005</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5300433.660000005</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5713330.250000006</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6013581.695000005</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6861260.345000005</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6842704.540000005</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6549226.015000007</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5601021.415000007</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5388735.965000005</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5372468.465000005</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4972966.965000005</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4967297.295000006</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5223070.340000005</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5440001.250000007</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5507199.575000007</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4558007.210000006</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4782652.445000005</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4571338.250000006</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4701945.770000005</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4578537.925000006</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4335939.510000005</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5253176.590000006</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4329800.040000006</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4382338.500000007</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5271405.165000005</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4429542.550000005</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4605864.850000004</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4373496.015000006</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5858774.165000004</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5858084.730000004</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5795521.750000006</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5870678.525000005</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5549023.315000005</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5515647.190000005</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4910887.365000005</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4649003.200000005</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4464143.175000004</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4944798.425000004</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4126205.250000007</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4592981.875000007</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4540985.950000006</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4212966.740000005</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3917054.210000006</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3670689.010000004</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3462896.860000005</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3129277.615000005</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3055744.375000005</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2277018.625000005</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2797591.875000004</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3775674.875000004</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3282997.865000005</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3310759.365000004</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3145192.015000004</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3288635.765000004</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3107919.265000007</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3063761.240000007</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2766847.365000006</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2595187.790000005</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2635436.780000006</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2116963.190000006</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2544967.555000006</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3690293.050000008</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2606915.715000007</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3139811.565000008</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2630736.815000007</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2873267.365000006</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2577924.550000007</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1444442.790000007</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3564060.415000007</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2588270.965000007</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1708496.040000007</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1693947.530000007</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3396834.090000007</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>6084065.220000008</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3160981.47000001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2965169.650000009</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3969916.010000008</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4281487.070000009</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2963554.290000008</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2965590.530000008</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2430183.440000005</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3705725.630000005</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4310650.280000005</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2923930.520000006</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2936211.320000005</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2266013.235000006</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2967183.035000005</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>716987.4850000046</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>458612.0150000058</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>451331.4950000048</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>325076.9800000057</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-180342.294999995</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>49662.5</v>
+      <c r="B269" t="n">
+        <v>239715.5550000079</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-873120.0199999925</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-954699.5449999928</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>66471.45500000716</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>274485.7900000077</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1535077.190000008</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1314762.445000007</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-81253.49499999246</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-38511.95499999298</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1258521.470000008</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2214387.085000006</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>985321.2800000095</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-1033329.969999989</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-1383489.469999989</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-2186818.21999999</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-2866608.26999999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-2799290.579999988</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-2952863.194999989</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-3152032.344999989</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-3988187.504999988</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-3979864.394999991</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-5021518.01499999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-4985017.82999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-5316918.23999999</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-5308554.98999999</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-3767824.844999991</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-1900709.054999991</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-2890917.12999999</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-2505528.37999999</v>
       </c>
     </row>
   </sheetData>
